--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-02T17:40:37+00:00</t>
+    <t>2022-06-07T22:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T22:53:01+00:00</t>
+    <t>2022-06-08T20:49:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from pan-Canadian Pro" r:id="rId4" sheetId="2"/>
     <sheet name="Include from BC-Specific Prac" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T20:49:38+00:00</t>
+    <t>2022-06-28T17:55:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,12 +97,6 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>ValueSet URL</t>
-  </si>
-  <si>
-    <t>https://fhir.infoway-inforoute.ca/ValueSet/healthcareproviderroletype</t>
-  </si>
-  <si>
     <t>Codes</t>
   </si>
   <si>
@@ -113,6 +107,9 @@
   </si>
   <si>
     <t>System URI</t>
+  </si>
+  <si>
+    <t>https://fhir.infoway-inforoute.ca/CodeSystem/scptype</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ca-bc/provider/CodeSystem/bc-practitioner-role-code-system</t>
@@ -380,7 +377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -398,6 +395,22 @@
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -419,28 +432,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T17:55:15+00:00</t>
+    <t>2022-06-29T20:55:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T20:55:42+00:00</t>
+    <t>2022-06-30T17:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T17:20:30+00:00</t>
+    <t>2022-07-05T22:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T22:19:03+00:00</t>
+    <t>2022-07-20T17:46:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T17:46:16+00:00</t>
+    <t>2022-07-21T17:40:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:40:15+00:00</t>
+    <t>2022-07-25T18:23:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T18:23:26+00:00</t>
+    <t>2022-07-25T18:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T18:27:38+00:00</t>
+    <t>2022-08-02T22:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-02T22:12:01+00:00</t>
+    <t>2022-08-08T16:02:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T16:02:07+00:00</t>
+    <t>2022-08-23T21:32:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:32:32+00:00</t>
+    <t>2022-08-23T22:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T22:37:21+00:00</t>
+    <t>2022-08-24T23:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from pan-Canadian Pro" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from BC-Specific Prac" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from BC-Specific Prac" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Property</t>
   </si>
@@ -58,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-24T23:51:36+00:00</t>
+    <t>2022-09-01T16:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>BC Practitioner Role Codes</t>
+    <t>BC Practitioner Role Codes.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -107,9 +106,6 @@
   </si>
   <si>
     <t>System URI</t>
-  </si>
-  <si>
-    <t>https://fhir.infoway-inforoute.ca/CodeSystem/scptype</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ca-bc/provider/CodeSystem/bc-practitioner-role-code-system</t>
@@ -416,47 +412,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:06:59+00:00</t>
+    <t>2022-09-01T16:21:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from BC-Specific Prac" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from pan-Canadian Pro" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from BC-Specific Prac" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:21:50+00:00</t>
+    <t>2022-09-01T16:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -106,6 +107,9 @@
   </si>
   <si>
     <t>System URI</t>
+  </si>
+  <si>
+    <t>https://fhir.infoway-inforoute.ca/CodeSystem/scptype</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ca-bc/provider/CodeSystem/bc-practitioner-role-code-system</t>
@@ -412,4 +416,47 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T16:52:18+00:00</t>
+    <t>2022-09-01T17:06:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T17:06:09+00:00</t>
+    <t>2022-09-01T19:48:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T19:48:46+00:00</t>
+    <t>2022-09-27T22:39:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:39:14+00:00</t>
+    <t>2022-10-05T22:20:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-05T22:20:29+00:00</t>
+    <t>2022-10-11T16:14:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -55,10 +55,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-11T16:14:09+00:00</t>
+    <t>2022-10-17T23:41:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -308,66 +311,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -389,28 +394,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -432,28 +437,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T23:41:26+00:00</t>
+    <t>2022-10-27T19:03:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T19:03:31+00:00</t>
+    <t>2022-10-27T21:56:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T21:56:37+00:00</t>
+    <t>2022-10-28T23:08:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-28T23:08:22+00:00</t>
+    <t>2022-10-31T19:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T19:28:42+00:00</t>
+    <t>2022-11-01T15:06:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-01T15:06:35+00:00</t>
+    <t>2022-11-14T22:17:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T22:17:10+00:00</t>
+    <t>2022-11-14T22:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T22:35:25+00:00</t>
+    <t>2022-11-15T19:54:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-15T19:54:41+00:00</t>
+    <t>2022-11-16T00:01:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:01:38+00:00</t>
+    <t>2022-11-16T00:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:10:00+00:00</t>
+    <t>2022-11-16T00:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T00:10:48+00:00</t>
+    <t>2022-11-17T20:58:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T20:58:34+00:00</t>
+    <t>2022-11-17T21:31:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T21:31:13+00:00</t>
+    <t>2022-11-17T21:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T21:33:43+00:00</t>
+    <t>2022-11-17T22:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T22:26:34+00:00</t>
+    <t>2022-11-17T23:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T23:34:37+00:00</t>
+    <t>2022-11-18T20:35:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T20:35:33+00:00</t>
+    <t>2022-11-29T21:08:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -25,13 +25,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ca-bc/provider/ValueSet/bc-practitioner-role-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ProviderLocationRegistry/ValueSet/bc-expertise-value-set</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.9.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T21:08:03+00:00</t>
+    <t>2022-11-30T16:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>https://fhir.infoway-inforoute.ca/CodeSystem/scptype</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ca-bc/provider/CodeSystem/bc-practitioner-role-code-system</t>
+    <t>https://terminology.hlth.gov.bc.ca/ProviderLocationRegistry/CodeSystem/bc-practitioner-role-code-system</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://terminology.hlth.gov.bc.ca/ProviderLocationRegistry/ValueSet/bc-expertise-value-set</t>
+    <t>https://terminology.hlth.gov.bc.ca/ProviderLocationRegistry/ValueSet/bc-practitioner-role-value-set</t>
   </si>
   <si>
     <t>Version</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T16:25:41+00:00</t>
+    <t>2022-11-30T17:04:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T17:04:23+00:00</t>
+    <t>2022-11-30T20:32:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:32:54+00:00</t>
+    <t>2022-11-30T20:54:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T20:54:53+00:00</t>
+    <t>2022-11-30T21:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.9</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T21:55:32+00:00</t>
+    <t>2022-12-01T19:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:15:43+00:00</t>
+    <t>2022-12-12T23:25:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-12T23:25:59+00:00</t>
+    <t>2022-12-13T16:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T16:34:13+00:00</t>
+    <t>2022-12-13T17:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T17:07:06+00:00</t>
+    <t>2022-12-13T19:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-13T19:55:00+00:00</t>
+    <t>2022-12-16T17:01:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T17:01:23+00:00</t>
+    <t>2022-12-16T22:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T22:41:35+00:00</t>
+    <t>2022-12-19T22:53:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T22:53:23+00:00</t>
+    <t>2022-12-20T17:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T17:05:36+00:00</t>
+    <t>2022-12-20T21:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T21:28:56+00:00</t>
+    <t>2022-12-20T23:28:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T23:28:16+00:00</t>
+    <t>2022-12-20T23:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T23:39:21+00:00</t>
+    <t>2023-01-17T22:49:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T22:49:54+00:00</t>
+    <t>2023-01-23T22:02:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from pan-Canadian Pro" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from scptype" r:id="rId4" sheetId="2"/>
     <sheet name="Include from BC-Specific Prac" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T22:02:59+00:00</t>
+    <t>2023-01-24T00:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,7 +112,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://fhir.infoway-inforoute.ca/CodeSystem/scptype</t>
+    <t>http://fhir.infoway-inforoute.ca/CodeSystem/scptype</t>
   </si>
   <si>
     <t>https://terminology.hlth.gov.bc.ca/ProviderLocationRegistry/CodeSystem/bc-practitioner-role-code-system</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from scptype" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from BC-Specific Prac" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from bc-practitioner-" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T00:02:12+00:00</t>
+    <t>2023-01-26T00:24:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T00:24:40+00:00</t>
+    <t>2023-01-26T22:19:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T22:19:10+00:00</t>
+    <t>2023-01-31T16:52:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T16:52:42+00:00</t>
+    <t>2023-02-08T21:16:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T21:16:12+00:00</t>
+    <t>2023-02-08T21:47:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-08T21:47:45+00:00</t>
+    <t>2023-02-21T21:05:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T21:05:43+00:00</t>
+    <t>2023-02-21T22:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T22:17:26+00:00</t>
+    <t>2023-02-22T23:59:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T23:59:38+00:00</t>
+    <t>2023-02-23T18:05:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T18:05:52+00:00</t>
+    <t>2023-02-23T19:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T19:08:00+00:00</t>
+    <t>2023-02-23T19:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T19:09:50+00:00</t>
+    <t>2023-03-13T17:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T17:50:39+00:00</t>
+    <t>2023-03-16T20:48:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T20:48:21+00:00</t>
+    <t>2023-03-23T17:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T17:35:31+00:00</t>
+    <t>2023-03-23T17:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T17:54:25+00:00</t>
+    <t>2023-03-23T23:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T23:03:49+00:00</t>
+    <t>2023-03-24T16:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -43,7 +43,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Practitioner Role Code Value Set</t>
+    <t>BC Practitioner Role Code Value Set</t>
   </si>
   <si>
     <t>Status</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T20:46:29+00:00</t>
+    <t>2023-03-31T19:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T19:02:02+00:00</t>
+    <t>2023-04-13T21:33:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-13T21:33:55+00:00</t>
+    <t>2023-04-13T22:55:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-13T22:55:41+00:00</t>
+    <t>2023-04-18T21:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18T21:17:28+00:00</t>
+    <t>2023-04-19T20:43:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T20:43:06+00:00</t>
+    <t>2023-04-19T22:41:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T22:41:00+00:00</t>
+    <t>2023-04-21T17:23:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T17:23:16+00:00</t>
+    <t>2023-04-21T17:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T17:23:46+00:00</t>
+    <t>2023-04-21T21:33:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-21T21:33:06+00:00</t>
+    <t>2023-05-05T19:53:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T19:53:30+00:00</t>
+    <t>2023-06-12T18:37:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -237,10 +237,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T18:37:27+00:00</t>
+    <t>2023-06-12T22:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T22:10:20+00:00</t>
+    <t>2023-06-12T22:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-12T22:51:11+00:00</t>
+    <t>2023-06-22T17:12:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T17:12:55+00:00</t>
+    <t>2023-08-10T18:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T18:02:33+00:00</t>
+    <t>2023-08-11T20:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-11T20:09:37+00:00</t>
+    <t>2023-08-17T21:34:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T21:34:48+00:00</t>
+    <t>2023-08-21T18:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T18:39:03+00:00</t>
+    <t>2023-08-22T18:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T18:08:48+00:00</t>
+    <t>2023-08-22T19:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T19:47:16+00:00</t>
+    <t>2023-08-22T20:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:07:10+00:00</t>
+    <t>2023-08-22T20:25:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:25:35+00:00</t>
+    <t>2023-08-22T22:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T22:16:03+00:00</t>
+    <t>2023-08-25T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:39:06+00:00</t>
+    <t>2023-08-25T21:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:46:31+00:00</t>
+    <t>2023-09-06T17:45:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T17:45:01+00:00</t>
+    <t>2023-09-06T23:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T23:35:56+00:00</t>
+    <t>2023-09-07T20:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T20:12:30+00:00</t>
+    <t>2023-09-07T21:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T21:19:16+00:00</t>
+    <t>2023-09-08T21:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T21:32:00+00:00</t>
+    <t>2023-09-29T19:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T19:19:38+00:00</t>
+    <t>2023-10-03T05:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T05:01:09+00:00</t>
+    <t>2023-10-03T20:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T20:58:36+00:00</t>
+    <t>2023-10-16T19:05:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T19:05:06+00:00</t>
+    <t>2023-10-18T17:43:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:43:06+00:00</t>
+    <t>2023-10-19T20:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T20:14:51+00:00</t>
+    <t>2023-10-23T19:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T19:17:15+00:00</t>
+    <t>2023-10-26T20:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T20:17:55+00:00</t>
+    <t>2023-10-30T17:17:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T17:17:37+00:00</t>
+    <t>2023-11-02T16:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:59:26+00:00</t>
+    <t>2023-11-07T20:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-07T20:41:49+00:00</t>
+    <t>2023-11-09T22:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T22:35:19+00:00</t>
+    <t>2024-01-31T21:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T21:18:40+00:00</t>
+    <t>2024-01-31T22:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T22:27:42+00:00</t>
+    <t>2024-02-13T00:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T00:30:38+00:00</t>
+    <t>2024-02-15T18:07:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T18:07:20+00:00</t>
+    <t>2024-02-22T00:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -49,7 +49,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T00:24:28+00:00</t>
+    <t>2024-04-16T19:17:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T19:17:03+00:00</t>
+    <t>2024-04-16T21:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:05:39+00:00</t>
+    <t>2024-04-28T01:45:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T01:45:29+00:00</t>
+    <t>2024-05-14T23:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T23:21:03+00:00</t>
+    <t>2024-05-15T07:20:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:20:40+00:00</t>
+    <t>2024-05-15T07:42:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:42:26+00:00</t>
+    <t>2024-05-31T17:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T17:22:32+00:00</t>
+    <t>2024-05-31T18:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T18:09:22+00:00</t>
+    <t>2024-05-31T19:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:19:35+00:00</t>
+    <t>2024-05-31T19:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:26:05+00:00</t>
+    <t>2024-05-31T22:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:33+00:00</t>
+    <t>2024-05-31T22:41:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:54+00:00</t>
+    <t>2024-06-10T23:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T23:17:00+00:00</t>
+    <t>2024-06-11T17:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-bc-practitioner-role-value-set.xlsx
+++ b/ValueSet-bc-practitioner-role-value-set.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T17:15:14+00:00</t>
+    <t>2024-06-11T17:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
